--- a/Jogos_do_Dia/2023-11-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>1.85</v>
@@ -754,43 +754,43 @@
         <v>2.63</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -812,94 +812,94 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Notts County</t>
+          <t>Milton Keynes Dons</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="M3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.3</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.22</v>
-      </c>
       <c r="Y3" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.89</v>
+        <v>1.78</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.79</v>
+        <v>2.91</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -908,28 +908,28 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -951,124 +951,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Milton Keynes Dons</t>
+          <t>Notts County</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.2</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.25</v>
       </c>
-      <c r="R4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM4" t="n">
         <v>2.1</v>
       </c>
-      <c r="W4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.81</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.65</v>
@@ -1171,31 +1171,31 @@
         <v>2.99</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN5" t="n">
         <v>1.8</v>
@@ -1204,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6">
@@ -1247,13 +1247,13 @@
         <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.36</v>
@@ -1274,10 +1274,10 @@
         <v>4.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.67</v>
@@ -1319,10 +1319,10 @@
         <v>2.42</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.34</v>
@@ -1389,10 +1389,10 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1.29</v>
@@ -1413,10 +1413,10 @@
         <v>4.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
         <v>1.5</v>
@@ -1458,10 +1458,10 @@
         <v>1.82</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.27</v>
@@ -1525,13 +1525,13 @@
         <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1552,10 +1552,10 @@
         <v>3.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
         <v>1.73</v>
@@ -1597,10 +1597,10 @@
         <v>2.44</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ8" t="n">
         <v>1.48</v>
@@ -1803,13 +1803,13 @@
         <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.4</v>
@@ -1830,7 +1830,7 @@
         <v>3.55</v>
       </c>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T10" t="n">
         <v>1.85</v>
@@ -1875,10 +1875,10 @@
         <v>3.29</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.48</v>
@@ -1924,37 +1924,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94</v>
+        <v>1.44</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.01</v>
+        <v>6.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.04</v>
@@ -1963,85 +1963,85 @@
         <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="T11" t="n">
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.33</v>
+        <v>2.75</v>
       </c>
       <c r="Z11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0.78</v>
-      </c>
       <c r="AB11" t="n">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
       <c r="AC11" t="n">
         <v>1.43</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.66</v>
+        <v>3.19</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.44</v>
+        <v>1.21</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.75</v>
+        <v>5.6</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="AM11" t="n">
         <v>1.98</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
@@ -2063,124 +2063,124 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>2.36</v>
       </c>
       <c r="K12" t="n">
-        <v>4.15</v>
+        <v>3.33</v>
       </c>
       <c r="L12" t="n">
-        <v>6.1</v>
+        <v>2.74</v>
       </c>
       <c r="M12" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.25</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="X12" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.76</v>
+        <v>1.27</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.19</v>
+        <v>2.68</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="K13" t="n">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>2.74</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="Z13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>2.63</v>
       </c>
       <c r="J14" t="n">
-        <v>1.31</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="S14" t="n">
         <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.22</v>
+        <v>0.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.13</v>
+        <v>0.78</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="AC14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH14" t="n">
         <v>1.2</v>
       </c>
-      <c r="AD14" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI14" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="15">
@@ -2498,13 +2498,13 @@
         <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="M15" t="n">
         <v>1.33</v>
@@ -2525,10 +2525,10 @@
         <v>3.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="n">
         <v>1.62</v>
@@ -2637,13 +2637,13 @@
         <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2664,10 +2664,10 @@
         <v>3.55</v>
       </c>
       <c r="S16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
         <v>1.95</v>
@@ -3395,13 +3395,13 @@
         <v>2.53</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -3410,28 +3410,28 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="22">
@@ -3673,13 +3673,13 @@
         <v>3.06</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -3688,28 +3688,28 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="24">
@@ -3888,13 +3888,13 @@
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="K25" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="M25" t="n">
         <v>1.44</v>
@@ -3915,10 +3915,10 @@
         <v>3.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
         <v>1.95</v>
@@ -4027,13 +4027,13 @@
         <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.93</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L26" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M26" t="n">
         <v>1.53</v>
@@ -4054,10 +4054,10 @@
         <v>2.7</v>
       </c>
       <c r="S26" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U26" t="n">
         <v>1.95</v>
@@ -4166,13 +4166,13 @@
         <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.41</v>
@@ -4193,10 +4193,10 @@
         <v>3.3</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
         <v>1.8</v>
@@ -4305,13 +4305,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.4</v>
@@ -4332,10 +4332,10 @@
         <v>3.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>1.75</v>
@@ -4444,13 +4444,13 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.53</v>
@@ -4471,10 +4471,10 @@
         <v>2.65</v>
       </c>
       <c r="S29" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -4540,10 +4540,10 @@
         <v>1.3</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="30">
@@ -4583,13 +4583,13 @@
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M30" t="n">
         <v>1.6</v>
@@ -4604,16 +4604,16 @@
         <v>6.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
         <v>2.55</v>
       </c>
       <c r="T30" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -4722,13 +4722,13 @@
         <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,10 +4749,10 @@
         <v>3.6</v>
       </c>
       <c r="S31" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -4861,13 +4861,13 @@
         <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="M32" t="n">
         <v>1.37</v>
@@ -4888,10 +4888,10 @@
         <v>3.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="U32" t="n">
         <v>1.7</v>
@@ -5000,13 +5000,13 @@
         <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="K33" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="L33" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="M33" t="n">
         <v>1.5</v>
@@ -5027,10 +5027,10 @@
         <v>2.9</v>
       </c>
       <c r="S33" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U33" t="n">
         <v>2.25</v>
@@ -5063,19 +5063,19 @@
         <v>3.04</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ33" t="n">
         <v>1.28</v>
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="M34" t="n">
         <v>1.5</v>
@@ -5166,10 +5166,10 @@
         <v>2.8</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="U34" t="n">
         <v>2.63</v>
@@ -5202,13 +5202,13 @@
         <v>2.73</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AH34" t="n">
         <v>1.2</v>
@@ -5278,13 +5278,13 @@
         <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="L35" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="M35" t="n">
         <v>1.57</v>
@@ -5299,16 +5299,16 @@
         <v>6.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="S35" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
         <v>2.25</v>
@@ -5341,13 +5341,13 @@
         <v>2.81</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH35" t="n">
         <v>1.2</v>
@@ -5417,13 +5417,13 @@
         <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L36" t="n">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="M36" t="n">
         <v>1.51</v>
@@ -5447,7 +5447,7 @@
         <v>2.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
         <v>2</v>
@@ -5480,13 +5480,13 @@
         <v>2.83</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH36" t="n">
         <v>1.18</v>
@@ -5556,13 +5556,13 @@
         <v>7.5</v>
       </c>
       <c r="J37" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="M37" t="n">
         <v>1.53</v>
@@ -5583,10 +5583,10 @@
         <v>2.8</v>
       </c>
       <c r="S37" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U37" t="n">
         <v>2.75</v>
@@ -5619,13 +5619,13 @@
         <v>2.71</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AH37" t="n">
         <v>1.22</v>
@@ -5695,10 +5695,10 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L38" t="n">
         <v>3.3</v>
@@ -5722,10 +5722,10 @@
         <v>3.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
         <v>1.8</v>
@@ -5825,22 +5825,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K39" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -5861,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U39" t="n">
         <v>2.1</v>
@@ -5897,7 +5897,7 @@
         <v>3.41</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AF39" t="n">
         <v>8</v>
@@ -5973,13 +5973,13 @@
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M40" t="n">
         <v>1.37</v>

--- a/Jogos_do_Dia/2023-11-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.85</v>
@@ -739,10 +739,10 @@
         <v>1.95</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" t="n">
         <v>1.4</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -996,10 +996,10 @@
         <v>4.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="U4" t="n">
         <v>1.57</v>
@@ -1017,10 +1017,10 @@
         <v>1.85</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AB4" t="n">
         <v>1.53</v>
@@ -1108,7 +1108,7 @@
         <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>1.85</v>
@@ -1156,10 +1156,10 @@
         <v>1.53</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB5" t="n">
         <v>1.56</v>
@@ -1229,49 +1229,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="M6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="S6" t="n">
         <v>1.75</v>
@@ -1280,73 +1280,73 @@
         <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>1.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.42</v>
+        <v>3.29</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.5</v>
+        <v>3.64</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="H7" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.33</v>
       </c>
       <c r="L7" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T7" t="n">
         <v>2</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>1.55</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="X7" t="n">
         <v>1.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.97</v>
+        <v>2.68</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1507,115 +1507,115 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2.25</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AA8" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.62</v>
+        <v>3.19</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.44</v>
+        <v>5.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1.5</v>
@@ -1624,7 +1624,7 @@
         <v>3.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="9">
@@ -1646,124 +1646,124 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>2.27</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2.86</v>
+        <v>1.89</v>
       </c>
       <c r="M9" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N9" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="S9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
         <v>1.75</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AH9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO9" t="n">
         <v>1.57</v>
       </c>
-      <c r="Z9" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="10">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>2.88</v>
       </c>
       <c r="H10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
         <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.63</v>
+        <v>0.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.44</v>
+        <v>0.44</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.29</v>
+        <v>2.2</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.64</v>
+        <v>3.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="11">
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.95</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.76</v>
+        <v>1.31</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.19</v>
+        <v>2.61</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2063,34 +2063,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="K12" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.74</v>
+        <v>3.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N12" t="n">
         <v>3</v>
@@ -2102,85 +2102,85 @@
         <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R12" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="T12" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V12" t="n">
         <v>2</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
         <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AA12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO12" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="13">
@@ -2202,124 +2202,124 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.36</v>
       </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.29</v>
-      </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI13" t="n">
         <v>4.5</v>
       </c>
-      <c r="S13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.4</v>
+        <v>2.85</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14">
@@ -2341,124 +2341,124 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>1.31</v>
       </c>
       <c r="K14" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="X14" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.75</v>
+        <v>2.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.66</v>
+        <v>2.79</v>
       </c>
       <c r="AE14" t="n">
-        <v>2.44</v>
+        <v>1.26</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.75</v>
+        <v>4.86</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="15">
@@ -2480,124 +2480,124 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="R15" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
         <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.67</v>
+        <v>1.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.38</v>
+        <v>1.44</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.65</v>
+        <v>2.97</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="16">
@@ -2619,31 +2619,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>2.25</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="K16" t="n">
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
@@ -2652,91 +2652,91 @@
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="R16" t="n">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="S16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
         <v>1.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.89</v>
+        <v>1.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AB16" t="n">
         <v>1.43</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AD16" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AP16" t="n">
         <v>2.36</v>
       </c>
-      <c r="AE16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2.95</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17">
@@ -2758,31 +2758,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bristol Rovers</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>4.95</v>
       </c>
       <c r="M17" t="n">
         <v>1.36</v>
@@ -2794,88 +2794,88 @@
         <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
         <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z17" t="n">
         <v>2</v>
       </c>
-      <c r="W17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1.13</v>
+        <v>0.44</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.3</v>
+        <v>0.93</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.71</v>
+        <v>2.36</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="18">
@@ -3314,31 +3314,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Bristol Rovers</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>1.58</v>
+        <v>1.95</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>4.95</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.36</v>
@@ -3347,16 +3347,16 @@
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P21" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R21" t="n">
-        <v>3.76</v>
+        <v>3.4</v>
       </c>
       <c r="S21" t="n">
         <v>1.9</v>
@@ -3365,43 +3365,43 @@
         <v>1.9</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -3410,28 +3410,28 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3888,13 +3888,13 @@
         <v>4.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L25" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="M25" t="n">
         <v>1.44</v>
@@ -3915,10 +3915,10 @@
         <v>3.1</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
         <v>1.95</v>
@@ -3936,10 +3936,10 @@
         <v>1.91</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>1.44</v>
@@ -4027,13 +4027,13 @@
         <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="L26" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="M26" t="n">
         <v>1.53</v>
@@ -4054,10 +4054,10 @@
         <v>2.7</v>
       </c>
       <c r="S26" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U26" t="n">
         <v>1.95</v>
@@ -4075,10 +4075,10 @@
         <v>1.36</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AB26" t="n">
         <v>1.47</v>
@@ -4166,13 +4166,13 @@
         <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>3.5</v>
+        <v>4.03</v>
       </c>
       <c r="M27" t="n">
         <v>1.41</v>
@@ -4193,10 +4193,10 @@
         <v>3.3</v>
       </c>
       <c r="S27" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="U27" t="n">
         <v>1.8</v>
@@ -4214,10 +4214,10 @@
         <v>1.85</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AB27" t="n">
         <v>1.43</v>
@@ -4229,31 +4229,31 @@
         <v>2.68</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN27" t="n">
         <v>1.88</v>
@@ -4262,10 +4262,10 @@
         <v>1.93</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="28">
@@ -4305,13 +4305,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3.49</v>
       </c>
       <c r="L28" t="n">
-        <v>4.1</v>
+        <v>3.77</v>
       </c>
       <c r="M28" t="n">
         <v>1.4</v>
@@ -4332,10 +4332,10 @@
         <v>3.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
         <v>1.75</v>
@@ -4353,10 +4353,10 @@
         <v>1.73</v>
       </c>
       <c r="Z28" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AB28" t="n">
         <v>1.63</v>
@@ -4444,13 +4444,13 @@
         <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K29" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="L29" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="M29" t="n">
         <v>1.53</v>
@@ -4465,16 +4465,16 @@
         <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R29" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="T29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -4492,10 +4492,10 @@
         <v>1.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AB29" t="n">
         <v>1</v>
@@ -4583,13 +4583,13 @@
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="K30" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="M30" t="n">
         <v>1.6</v>
@@ -4610,10 +4610,10 @@
         <v>2.4</v>
       </c>
       <c r="S30" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="T30" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -4631,10 +4631,10 @@
         <v>1.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AB30" t="n">
         <v>1.38</v>
@@ -4722,13 +4722,13 @@
         <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>4.16</v>
       </c>
       <c r="L31" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.36</v>
@@ -4749,7 +4749,7 @@
         <v>3.6</v>
       </c>
       <c r="S31" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T31" t="n">
         <v>1.95</v>
@@ -4770,10 +4770,10 @@
         <v>2.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AB31" t="n">
         <v>1.19</v>
@@ -4785,43 +4785,43 @@
         <v>2.72</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="32">
@@ -4861,13 +4861,13 @@
         <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.31</v>
       </c>
       <c r="L32" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="M32" t="n">
         <v>1.37</v>
@@ -4888,10 +4888,10 @@
         <v>3.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
         <v>1.7</v>
@@ -4909,10 +4909,10 @@
         <v>1.47</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AB32" t="n">
         <v>1.27</v>
@@ -4982,130 +4982,130 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="K33" t="n">
-        <v>3.68</v>
+        <v>4.02</v>
       </c>
       <c r="L33" t="n">
-        <v>5.66</v>
+        <v>8.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="N33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R33" t="n">
         <v>2.5</v>
       </c>
-      <c r="O33" t="n">
+      <c r="S33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.07</v>
       </c>
-      <c r="P33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="X33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK33" t="n">
         <v>2.9</v>
       </c>
-      <c r="S33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T33" t="n">
+      <c r="AL33" t="n">
         <v>1.6</v>
       </c>
-      <c r="U33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1.51</v>
-      </c>
       <c r="AM33" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AN33" t="n">
         <v>2</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,128 +5117,128 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Criciúma</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Elche CF</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="H34" t="n">
         <v>2.05</v>
       </c>
       <c r="I34" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>8</v>
+        <v>3.45</v>
       </c>
       <c r="M34" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="N34" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="O34" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P34" t="n">
         <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="R34" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="T34" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="U34" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="AB34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE34" t="n">
         <v>1.64</v>
       </c>
-      <c r="AC34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AF34" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="AG34" t="n">
-        <v>3.45</v>
+        <v>2.77</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI34" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AK34" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AN34" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AO34" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AP34" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="35">
@@ -5260,124 +5260,124 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R35" t="n">
         <v>2.75</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="S35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.57</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.53</v>
-      </c>
       <c r="U35" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL35" t="n">
         <v>1.57</v>
       </c>
-      <c r="W35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM35" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="AN35" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="36">
@@ -5399,124 +5399,124 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Criciúma</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="I36" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="J36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N36" t="n">
         <v>2.5</v>
       </c>
-      <c r="K36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.46</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="S36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T36" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="V36" t="n">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="W36" t="n">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="X36" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.56</v>
+        <v>2.8</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AA36" t="n">
         <v>1.11</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AD36" t="n">
-        <v>2.83</v>
+        <v>2.73</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.300000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.26</v>
+        <v>3.45</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI36" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AK36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP36" t="n">
         <v>3</v>
       </c>
-      <c r="AL36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AQ36" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="37">
@@ -5538,130 +5538,130 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I37" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="L37" t="n">
-        <v>8</v>
+        <v>5.94</v>
       </c>
       <c r="M37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="N37" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R37" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="S37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U37" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="W37" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="X37" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG37" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI37" t="n">
         <v>4.3</v>
       </c>
-      <c r="AH37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>4</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AK37" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AM37" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AN37" t="n">
         <v>2</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -5673,128 +5673,128 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elche CF</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>2.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K38" t="n">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="L38" t="n">
-        <v>3.3</v>
+        <v>4.76</v>
       </c>
       <c r="M38" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="N38" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="O38" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="P38" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="R38" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="S38" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="U38" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V38" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X38" t="n">
         <v>1.33</v>
       </c>
-      <c r="X38" t="n">
-        <v>1.3</v>
-      </c>
       <c r="Y38" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Z38" t="n">
         <v>2</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.86</v>
+        <v>1.26</v>
       </c>
       <c r="AB38" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AF38" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="AH38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AK38" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="AN38" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="AO38" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AP38" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39">
@@ -5825,61 +5825,61 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I39" t="n">
         <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S39" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.62</v>
       </c>
-      <c r="U39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z39" t="n">
         <v>1.87</v>
@@ -5897,43 +5897,43 @@
         <v>3.41</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="AF39" t="n">
         <v>8</v>
       </c>
       <c r="AG39" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AL39" t="n">
         <v>1.83</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="40">
@@ -5973,13 +5973,13 @@
         <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="K40" t="n">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="L40" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>1.37</v>
@@ -6000,10 +6000,10 @@
         <v>3.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U40" t="n">
         <v>1.75</v>
